--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1695656.689970019</v>
+        <v>1712301.809273708</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>713587.7684111177</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.27205212</v>
+        <v>11813519.27205211</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6729275.987201948</v>
+        <v>6729275.987201949</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>17.0886256691825</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>101.6082481522616</v>
       </c>
     </row>
     <row r="4">
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,16 +910,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>81.0053776549329</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>186.9919489137623</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>177.9805510529631</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>196.9826481283071</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>20.68712856313109</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,10 +1262,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>161.78546006158</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1272,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,64 +1290,64 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>220.5904876419002</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -1415,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>19.31623672742229</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1452,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>29.63438288880529</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1464,10 +1466,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>83.38828075115852</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
@@ -1509,7 +1511,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>39.29526778092605</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>21.3881647021494</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>139.3434223728891</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>80.34810063893774</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>34.28974649965685</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1698,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>74.78464045573078</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21.38816470214935</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>74.67247646141476</v>
@@ -1813,7 +1815,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>21.3881647021493</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1844,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>118.695454779002</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>220.5164804230398</v>
@@ -1904,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>233.8299796972158</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>127.3343733834988</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.66285474396769</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,22 +1976,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="V19" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2093,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H20" t="n">
-        <v>91.11625179762363</v>
+        <v>182.2576151769395</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>7.425224531302296</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>40.48971074646364</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4103988718534</v>
+        <v>98.68313739545469</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>144.1598590802727</v>
+        <v>47.12105242790417</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>146.3367286684165</v>
+        <v>93.8436433785191</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
@@ -2457,13 +2459,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>106.9147497326712</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>38.97640474817486</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
@@ -2612,13 +2614,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>188.2219147149415</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>117.3450705775783</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2640,19 +2642,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>93.72039959183681</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>174.1736765502211</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>98.68313739545468</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>73.36175976093794</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2792,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>46.00897025967809</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.1189927826353</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2871,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>121.576276319306</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2883,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2925,16 +2927,16 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>6.975990250687771</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>98.68313739545452</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>47.74806282379154</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>91.11625179762402</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3111,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3120,7 +3122,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>156.8044246495134</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
@@ -3168,10 +3170,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>83.38828075115862</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>176.8839300665536</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.0890042129122</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.67417889435407</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>107.6230897752084</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.425224531302296</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>87.3028380711265</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.33883677318111</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>70.6261198365675</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3582,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>106.390956156355</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,7 +3638,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>150.140102323971</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3667,22 +3669,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>12.35168551462429</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>25.11727123431388</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>253.2496509598447</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>141.6396260835078</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>111.2259078469687</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>191.96389311163</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3913,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>90.94970861955599</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.19479062707046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>35.41912010935325</v>
       </c>
       <c r="I44" t="n">
-        <v>71.93630676794938</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4065,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>95.15659928734348</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4113,13 +4115,13 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>63.89534091877805</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.63772211848436</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4177,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>179.0654404381968</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68395448076474</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4370,10 +4372,10 @@
         <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>414.6641751762832</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="C3" t="n">
-        <v>240.2111458951562</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="D3" t="n">
-        <v>240.2111458951562</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E3" t="n">
-        <v>240.2111458951562</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2111458951562</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4413,16 +4415,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>790.6398109613051</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W3" t="n">
-        <v>790.6398109613051</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X3" t="n">
-        <v>790.6398109613051</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="Y3" t="n">
-        <v>582.8795121963512</v>
+        <v>317.2494235330527</v>
       </c>
     </row>
     <row r="4">
@@ -4504,19 +4506,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>278.1872303756613</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C5" t="n">
-        <v>278.1872303756613</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D5" t="n">
-        <v>278.1872303756613</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E5" t="n">
-        <v>278.1872303756613</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>765.0847836638613</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X5" t="n">
-        <v>765.0847836638613</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y5" t="n">
-        <v>521.6360070197613</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>784.2788211137038</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>784.2788211137038</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>784.2788211137038</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>784.2788211137038</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>576.5185223487499</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E8" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F8" t="n">
-        <v>506.1786963984129</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>293.0313262305118</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>293.0313262305118</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>293.0313262305118</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4887,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>699.4679694356633</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>471.2443511720524</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V9" t="n">
-        <v>471.2443511720524</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W9" t="n">
-        <v>227.7955745279523</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>461.2466632505798</v>
       </c>
     </row>
     <row r="10">
@@ -4993,19 +4995,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1508.970645214178</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="C11" t="n">
-        <v>1140.008128273766</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="D11" t="n">
-        <v>781.7424296670156</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="E11" t="n">
-        <v>781.7424296670156</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="F11" t="n">
-        <v>781.7424296670156</v>
+        <v>631.9553272824515</v>
       </c>
       <c r="G11" t="n">
-        <v>558.9237552812579</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H11" t="n">
         <v>222.1153555684087</v>
@@ -5039,13 +5041,13 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K11" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M11" t="n">
         <v>838.8947028941458</v>
@@ -5054,37 +5056,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P11" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q11" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S11" t="n">
-        <v>1508.970645214178</v>
+        <v>1603.45493775789</v>
       </c>
       <c r="T11" t="n">
-        <v>1508.970645214178</v>
+        <v>1603.45493775789</v>
       </c>
       <c r="U11" t="n">
-        <v>1508.970645214178</v>
+        <v>1349.618054690144</v>
       </c>
       <c r="V11" t="n">
-        <v>1508.970645214178</v>
+        <v>1018.555167346573</v>
       </c>
       <c r="W11" t="n">
-        <v>1508.970645214178</v>
+        <v>1018.555167346573</v>
       </c>
       <c r="X11" t="n">
-        <v>1508.970645214178</v>
+        <v>1018.555167346573</v>
       </c>
       <c r="Y11" t="n">
-        <v>1508.970645214178</v>
+        <v>1018.555167346573</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>709.8087082577356</v>
+        <v>536.9689116288027</v>
       </c>
       <c r="C12" t="n">
-        <v>709.8087082577356</v>
+        <v>536.9689116288027</v>
       </c>
       <c r="D12" t="n">
-        <v>560.8742985964843</v>
+        <v>536.9689116288027</v>
       </c>
       <c r="E12" t="n">
-        <v>401.6368435910288</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F12" t="n">
-        <v>255.1022856179138</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G12" t="n">
-        <v>116.689912377084</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L12" t="n">
-        <v>534.6972605625989</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M12" t="n">
-        <v>934.1153971668618</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082811</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O12" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P12" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T12" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U12" t="n">
-        <v>944.9608164894784</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V12" t="n">
-        <v>709.8087082577356</v>
+        <v>791.2062683570043</v>
       </c>
       <c r="W12" t="n">
-        <v>709.8087082577356</v>
+        <v>536.9689116288027</v>
       </c>
       <c r="X12" t="n">
-        <v>709.8087082577356</v>
+        <v>536.9689116288027</v>
       </c>
       <c r="Y12" t="n">
-        <v>709.8087082577356</v>
+        <v>536.9689116288027</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="C13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="D13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="F13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="G13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="H13" t="n">
-        <v>256.8779464865154</v>
+        <v>129.490276430019</v>
       </c>
       <c r="I13" t="n">
         <v>107.8860696601711</v>
@@ -5200,7 +5202,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5221,28 +5223,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="T13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="U13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="V13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="W13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="X13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="Y13" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1145.475793905159</v>
+        <v>113.6190233748408</v>
       </c>
       <c r="C14" t="n">
-        <v>776.5132769647469</v>
+        <v>113.6190233748408</v>
       </c>
       <c r="D14" t="n">
-        <v>418.2475783579964</v>
+        <v>113.6190233748408</v>
       </c>
       <c r="E14" t="n">
-        <v>32.45932575975219</v>
+        <v>113.6190233748408</v>
       </c>
       <c r="F14" t="n">
         <v>32.45932575975219</v>
@@ -5276,52 +5278,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
         <v>1508.970645214178</v>
       </c>
       <c r="S14" t="n">
-        <v>1508.970645214178</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T14" t="n">
-        <v>1286.226725594945</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U14" t="n">
-        <v>1286.226725594945</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V14" t="n">
-        <v>1286.226725594945</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W14" t="n">
-        <v>1286.226725594945</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="X14" t="n">
-        <v>1286.226725594945</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="Y14" t="n">
-        <v>1286.226725594945</v>
+        <v>113.6190233748408</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>661.618777680701</v>
+        <v>910.3247089140674</v>
       </c>
       <c r="C15" t="n">
-        <v>487.165748399574</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D15" t="n">
-        <v>338.2313387383227</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E15" t="n">
-        <v>178.9938837328672</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F15" t="n">
-        <v>32.45932575975219</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G15" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H15" t="n">
         <v>32.45932575975219</v>
@@ -5355,52 +5357,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>236.9655055809358</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L15" t="n">
-        <v>534.697260562599</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M15" t="n">
-        <v>934.1153971668621</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N15" t="n">
-        <v>1335.799553443796</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O15" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1547.426247123235</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1547.426247123235</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1547.426247123235</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U15" t="n">
-        <v>1319.223579660713</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V15" t="n">
-        <v>1084.071471428971</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="W15" t="n">
-        <v>829.8341147007691</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="X15" t="n">
-        <v>829.8341147007691</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="Y15" t="n">
-        <v>829.8341147007691</v>
+        <v>944.9608164894784</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="C16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="D16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="E16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="F16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="G16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="H16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="I16" t="n">
         <v>107.8860696601711</v>
@@ -5458,28 +5460,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R16" t="n">
-        <v>129.490276430019</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="S16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="T16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="U16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="V16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="W16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="X16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1088.658125761969</v>
+        <v>811.2618144142067</v>
       </c>
       <c r="C17" t="n">
-        <v>1088.658125761969</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D17" t="n">
-        <v>1088.658125761969</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E17" t="n">
-        <v>1088.658125761969</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F17" t="n">
-        <v>968.7637269953007</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G17" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5534,31 +5536,31 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q17" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1311.402045381202</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T17" t="n">
-        <v>1088.658125761969</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U17" t="n">
-        <v>1088.658125761969</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V17" t="n">
-        <v>1088.658125761969</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W17" t="n">
-        <v>1088.658125761969</v>
+        <v>1047.453713098263</v>
       </c>
       <c r="X17" t="n">
-        <v>1088.658125761969</v>
+        <v>811.2618144142067</v>
       </c>
       <c r="Y17" t="n">
-        <v>1088.658125761969</v>
+        <v>811.2618144142067</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>790.2393568559523</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="C18" t="n">
-        <v>615.7863275748253</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="D18" t="n">
-        <v>466.8519179135741</v>
+        <v>98.78544166274986</v>
       </c>
       <c r="E18" t="n">
-        <v>307.6144629081186</v>
+        <v>98.78544166274986</v>
       </c>
       <c r="F18" t="n">
-        <v>161.0799049350036</v>
+        <v>98.78544166274986</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975219</v>
+        <v>98.78544166274986</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975219</v>
+        <v>98.78544166274986</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975219</v>
@@ -5601,19 +5603,19 @@
         <v>505.9483651585071</v>
       </c>
       <c r="M18" t="n">
-        <v>905.3665017627701</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.050658039703</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O18" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q18" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
         <v>1541.568727888341</v>
@@ -5622,22 +5624,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1374.066492846507</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>1374.066492846507</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V18" t="n">
-        <v>1374.066492846507</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W18" t="n">
-        <v>1374.066492846507</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X18" t="n">
-        <v>1166.214992640974</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="Y18" t="n">
-        <v>958.4546938760204</v>
+        <v>247.7198513240011</v>
       </c>
     </row>
     <row r="19">
@@ -5674,7 +5676,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5695,16 +5697,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>194.1667418687506</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T19" t="n">
-        <v>194.1667418687506</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="U19" t="n">
-        <v>194.1667418687506</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V19" t="n">
         <v>32.45932575975219</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>493.4584606775615</v>
+        <v>816.0539284712793</v>
       </c>
       <c r="C20" t="n">
-        <v>124.4959437371498</v>
+        <v>816.0539284712793</v>
       </c>
       <c r="D20" t="n">
-        <v>124.4959437371498</v>
+        <v>816.0539284712793</v>
       </c>
       <c r="E20" t="n">
-        <v>124.4959437371498</v>
+        <v>816.0539284712793</v>
       </c>
       <c r="F20" t="n">
-        <v>124.4959437371498</v>
+        <v>816.0539284712793</v>
       </c>
       <c r="G20" t="n">
-        <v>124.4959437371498</v>
+        <v>406.2139567572364</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O20" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P20" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T20" t="n">
-        <v>1622.966287987609</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U20" t="n">
-        <v>1622.966287987609</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V20" t="n">
-        <v>1622.966287987609</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="W20" t="n">
-        <v>1270.197632717495</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="X20" t="n">
-        <v>1270.197632717495</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="Y20" t="n">
-        <v>880.0583007416833</v>
+        <v>1202.653768535401</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>206.9123550408792</v>
+        <v>39.95955255904744</v>
       </c>
       <c r="C21" t="n">
-        <v>32.45932575975218</v>
+        <v>39.95955255904744</v>
       </c>
       <c r="D21" t="n">
-        <v>32.45932575975218</v>
+        <v>39.95955255904744</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K21" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L21" t="n">
-        <v>147.3709770270844</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M21" t="n">
-        <v>546.7891136313474</v>
+        <v>656.0248753321105</v>
       </c>
       <c r="N21" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O21" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q21" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R21" t="n">
         <v>1541.568727888341</v>
@@ -5862,19 +5864,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>944.9608164894781</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V21" t="n">
-        <v>709.8087082577354</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W21" t="n">
-        <v>455.5713515295337</v>
+        <v>455.5713515295342</v>
       </c>
       <c r="X21" t="n">
-        <v>414.6726538058331</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="Y21" t="n">
-        <v>206.9123550408792</v>
+        <v>39.95955255904744</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5935,25 +5937,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>139.6199360758255</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="T22" t="n">
-        <v>139.6199360758255</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U22" t="n">
-        <v>139.6199360758255</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>905.3035605799171</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="C23" t="n">
-        <v>536.3410436395054</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="D23" t="n">
-        <v>178.0753450327549</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975218</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975218</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I23" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521507</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528326</v>
@@ -6002,37 +6004,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.96628798761</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V23" t="n">
-        <v>1291.903400644039</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W23" t="n">
-        <v>1291.903400644039</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="X23" t="n">
-        <v>1291.903400644039</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="Y23" t="n">
-        <v>1291.903400644039</v>
+        <v>1016.360749649749</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>329.2086128638484</v>
+        <v>909.9986151740084</v>
       </c>
       <c r="C24" t="n">
-        <v>181.3937354210034</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D24" t="n">
-        <v>32.45932575975218</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I24" t="n">
         <v>32.45932575975218</v>
@@ -6075,43 +6077,43 @@
         <v>358.9399761455072</v>
       </c>
       <c r="M24" t="n">
-        <v>656.0248753321102</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O24" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T24" t="n">
-        <v>1254.561044051268</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U24" t="n">
-        <v>1026.358376588747</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="V24" t="n">
-        <v>791.2062683570039</v>
+        <v>1078.213952194076</v>
       </c>
       <c r="W24" t="n">
-        <v>536.9689116288023</v>
+        <v>1078.213952194076</v>
       </c>
       <c r="X24" t="n">
-        <v>536.9689116288023</v>
+        <v>1078.213952194076</v>
       </c>
       <c r="Y24" t="n">
-        <v>329.2086128638484</v>
+        <v>1078.213952194076</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.45402245942</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C25" t="n">
-        <v>140.45402245942</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L25" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M25" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N25" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O25" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V25" t="n">
-        <v>361.2466016029501</v>
+        <v>1583.596182181372</v>
       </c>
       <c r="W25" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X25" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.45402245942</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="26">
@@ -6227,43 +6229,43 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O26" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P26" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q26" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S26" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T26" t="n">
-        <v>1202.653768535401</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U26" t="n">
-        <v>948.8168854676549</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V26" t="n">
-        <v>758.6937392909463</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W26" t="n">
-        <v>405.9250840208321</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="X26" t="n">
         <v>32.45932575975219</v>
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>989.6600854869342</v>
+        <v>597.0483929700301</v>
       </c>
       <c r="C27" t="n">
-        <v>815.2070562058072</v>
+        <v>422.5953636889031</v>
       </c>
       <c r="D27" t="n">
-        <v>666.272646544556</v>
+        <v>273.6609540276519</v>
       </c>
       <c r="E27" t="n">
-        <v>507.0351915391004</v>
+        <v>273.6609540276519</v>
       </c>
       <c r="F27" t="n">
-        <v>360.5006335659854</v>
+        <v>127.1263960545369</v>
       </c>
       <c r="G27" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975219</v>
@@ -6306,49 +6308,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K27" t="n">
-        <v>32.45932575975219</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L27" t="n">
-        <v>330.1910807414154</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M27" t="n">
-        <v>656.0248753321104</v>
+        <v>546.7891136313476</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q27" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S27" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T27" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U27" t="n">
-        <v>1541.568727888341</v>
+        <v>1227.261385483254</v>
       </c>
       <c r="V27" t="n">
-        <v>1541.568727888341</v>
+        <v>1227.261385483254</v>
       </c>
       <c r="W27" t="n">
-        <v>1541.568727888341</v>
+        <v>973.0240287550521</v>
       </c>
       <c r="X27" t="n">
-        <v>1365.635721271956</v>
+        <v>973.0240287550521</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.875422507002</v>
+        <v>765.2637299900982</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C28" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D28" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E28" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F28" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G28" t="n">
         <v>32.45932575975219</v>
@@ -6412,22 +6414,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>132.1392625228377</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="V28" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W28" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X28" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y28" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>401.4218427001639</v>
+        <v>1232.826956011798</v>
       </c>
       <c r="C29" t="n">
-        <v>32.45932575975219</v>
+        <v>1186.35324867879</v>
       </c>
       <c r="D29" t="n">
-        <v>32.45932575975219</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E29" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F29" t="n">
         <v>32.45932575975219</v>
@@ -6470,43 +6472,43 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O29" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P29" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q29" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R29" t="n">
-        <v>1517.79558820717</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S29" t="n">
-        <v>1517.79558820717</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T29" t="n">
-        <v>1517.79558820717</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U29" t="n">
-        <v>1517.79558820717</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V29" t="n">
-        <v>1517.79558820717</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W29" t="n">
-        <v>1165.026932937056</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X29" t="n">
-        <v>791.5611746759756</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.4218427001639</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>448.5248967308594</v>
+        <v>938.0113757202578</v>
       </c>
       <c r="C30" t="n">
-        <v>448.5248967308594</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D30" t="n">
-        <v>448.5248967308594</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E30" t="n">
-        <v>289.2874417254039</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F30" t="n">
-        <v>142.7528837522889</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G30" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L30" t="n">
-        <v>534.697260562599</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M30" t="n">
-        <v>934.1153971668621</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N30" t="n">
-        <v>1335.799553443796</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O30" t="n">
-        <v>1513.730526286846</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q30" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R30" t="n">
         <v>1541.568727888341</v>
@@ -6573,19 +6575,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U30" t="n">
-        <v>944.9608164894784</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V30" t="n">
-        <v>709.8087082577356</v>
+        <v>938.0113757202578</v>
       </c>
       <c r="W30" t="n">
-        <v>455.571351529534</v>
+        <v>938.0113757202578</v>
       </c>
       <c r="X30" t="n">
-        <v>448.5248967308594</v>
+        <v>938.0113757202578</v>
       </c>
       <c r="Y30" t="n">
-        <v>448.5248967308594</v>
+        <v>938.0113757202578</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K31" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L31" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M31" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N31" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O31" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>1523.286351224524</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T31" t="n">
-        <v>1294.179012144412</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="U31" t="n">
-        <v>1294.179012144412</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="V31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>401.4218427001638</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="C32" t="n">
-        <v>32.45932575975208</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="D32" t="n">
-        <v>32.45932575975208</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975208</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975208</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975208</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975208</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975208</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O32" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P32" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.966287987609</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.966287987609</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="V32" t="n">
-        <v>1622.966287987609</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="W32" t="n">
-        <v>1270.197632717495</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="X32" t="n">
-        <v>1178.161014740097</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="Y32" t="n">
-        <v>788.0216827642855</v>
+        <v>1574.735921498931</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>625.5781216404037</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="C33" t="n">
-        <v>625.5781216404037</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="D33" t="n">
-        <v>476.6437119791524</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E33" t="n">
-        <v>317.4062569736969</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F33" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G33" t="n">
         <v>32.45932575975219</v>
@@ -6780,49 +6782,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K33" t="n">
-        <v>61.20822116384404</v>
+        <v>201.1187329501919</v>
       </c>
       <c r="L33" t="n">
-        <v>256.6067387278474</v>
+        <v>498.8504879318551</v>
       </c>
       <c r="M33" t="n">
-        <v>656.0248753321104</v>
+        <v>898.2686245361181</v>
       </c>
       <c r="N33" t="n">
-        <v>1057.709031609044</v>
+        <v>1299.952780813052</v>
       </c>
       <c r="O33" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S33" t="n">
-        <v>1374.066492846507</v>
+        <v>1464.577980260828</v>
       </c>
       <c r="T33" t="n">
-        <v>1173.163483952</v>
+        <v>1263.674971366322</v>
       </c>
       <c r="U33" t="n">
-        <v>944.9608164894784</v>
+        <v>1035.4723039038</v>
       </c>
       <c r="V33" t="n">
-        <v>709.8087082577356</v>
+        <v>800.3201956720573</v>
       </c>
       <c r="W33" t="n">
-        <v>625.5781216404037</v>
+        <v>546.0828389438556</v>
       </c>
       <c r="X33" t="n">
-        <v>625.5781216404037</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="Y33" t="n">
-        <v>625.5781216404037</v>
+        <v>338.2313387383227</v>
       </c>
     </row>
     <row r="34">
@@ -6832,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144412</v>
+        <v>1444.295651556747</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144412</v>
+        <v>1444.295651556747</v>
       </c>
       <c r="D34" t="n">
         <v>1294.179012144412</v>
@@ -6874,34 +6876,34 @@
         <v>1594.013114755733</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R34" t="n">
-        <v>1515.805677671536</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>846.2271159476761</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C35" t="n">
-        <v>477.2645990072644</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D35" t="n">
-        <v>118.9989004005139</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E35" t="n">
-        <v>118.9989004005139</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F35" t="n">
-        <v>118.9989004005139</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G35" t="n">
-        <v>118.9989004005139</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H35" t="n">
-        <v>118.9989004005139</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975219</v>
@@ -6938,10 +6940,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
         <v>838.8947028941458</v>
@@ -6950,37 +6952,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O35" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P35" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q35" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V35" t="n">
-        <v>1622.96628798761</v>
+        <v>1514.25609629548</v>
       </c>
       <c r="W35" t="n">
-        <v>1622.96628798761</v>
+        <v>1161.487441025366</v>
       </c>
       <c r="X35" t="n">
-        <v>1622.96628798761</v>
+        <v>788.0216827642857</v>
       </c>
       <c r="Y35" t="n">
-        <v>1232.826956011798</v>
+        <v>788.0216827642857</v>
       </c>
     </row>
     <row r="36">
@@ -7020,46 +7022,46 @@
         <v>32.45932575975219</v>
       </c>
       <c r="L36" t="n">
-        <v>147.3709770270846</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M36" t="n">
-        <v>546.7891136313476</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N36" t="n">
-        <v>948.4732699082811</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O36" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1534.78160306728</v>
       </c>
       <c r="T36" t="n">
-        <v>1173.163483952</v>
+        <v>1333.878594172773</v>
       </c>
       <c r="U36" t="n">
-        <v>944.9608164894786</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V36" t="n">
-        <v>709.8087082577358</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W36" t="n">
-        <v>455.5713515295342</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X36" t="n">
-        <v>247.7198513240014</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y36" t="n">
-        <v>39.95955255904744</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K37" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L37" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M37" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N37" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O37" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.96628798761</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.96628798761</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X37" t="n">
-        <v>1394.976737089592</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.7250243665027</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C38" t="n">
-        <v>390.7250243665027</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M38" t="n">
         <v>838.8947028941457</v>
@@ -7196,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1448.022325241267</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1448.022325241267</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>1448.022325241267</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V38" t="n">
-        <v>1116.959437897697</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W38" t="n">
-        <v>764.1907826275826</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="X38" t="n">
-        <v>390.7250243665027</v>
+        <v>1178.161014740097</v>
       </c>
       <c r="Y38" t="n">
-        <v>390.7250243665027</v>
+        <v>788.0216827642857</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>288.85934770015</v>
+        <v>491.8592862548239</v>
       </c>
       <c r="C39" t="n">
-        <v>288.85934770015</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="D39" t="n">
-        <v>139.9249380388987</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975219</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975219</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>32.45932575975219</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L39" t="n">
-        <v>147.3709770270843</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M39" t="n">
-        <v>546.7891136313473</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O39" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T39" t="n">
-        <v>1422.063279093103</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U39" t="n">
-        <v>1193.860611630581</v>
+        <v>1189.009049979722</v>
       </c>
       <c r="V39" t="n">
-        <v>958.7085033988383</v>
+        <v>953.8569417479794</v>
       </c>
       <c r="W39" t="n">
-        <v>704.4711466706367</v>
+        <v>699.6195850197778</v>
       </c>
       <c r="X39" t="n">
-        <v>496.6196464651039</v>
+        <v>699.6195850197778</v>
       </c>
       <c r="Y39" t="n">
-        <v>288.85934770015</v>
+        <v>491.8592862548239</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="C40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="D40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="E40" t="n">
-        <v>348.7701515881781</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="F40" t="n">
-        <v>201.8802040902677</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975219</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975219</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975219</v>
+        <v>1369.60575604483</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191286</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N40" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="Y40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.45932575975219</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="C41" t="n">
-        <v>32.45932575975219</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="D41" t="n">
-        <v>32.45932575975219</v>
+        <v>1010.863706313113</v>
       </c>
       <c r="E41" t="n">
-        <v>32.45932575975219</v>
+        <v>625.0754537148687</v>
       </c>
       <c r="F41" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G41" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H41" t="n">
         <v>32.45932575975219</v>
@@ -7412,10 +7414,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M41" t="n">
         <v>838.8947028941457</v>
@@ -7424,10 +7426,10 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P41" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q41" t="n">
         <v>1622.966287987609</v>
@@ -7442,19 +7444,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1479.895958610329</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V41" t="n">
-        <v>1148.833071266758</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W41" t="n">
-        <v>796.0644159966438</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="X41" t="n">
-        <v>422.5986577355639</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="Y41" t="n">
-        <v>32.45932575975219</v>
+        <v>1369.129404919863</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>355.8467647021305</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="C42" t="n">
-        <v>181.3937354210034</v>
+        <v>597.4593063921106</v>
       </c>
       <c r="D42" t="n">
-        <v>32.45932575975219</v>
+        <v>448.5248967308594</v>
       </c>
       <c r="E42" t="n">
-        <v>32.45932575975219</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H42" t="n">
         <v>32.45932575975219</v>
@@ -7497,10 +7499,10 @@
         <v>534.697260562599</v>
       </c>
       <c r="M42" t="n">
-        <v>869.8026208059053</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N42" t="n">
-        <v>1271.486777082839</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O42" t="n">
         <v>1271.486777082839</v>
@@ -7512,28 +7514,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U42" t="n">
-        <v>1429.063365652629</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V42" t="n">
-        <v>1193.911257420887</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W42" t="n">
-        <v>939.6739006926853</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="X42" t="n">
-        <v>731.8224004871524</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="Y42" t="n">
-        <v>524.0621017221986</v>
+        <v>709.8087082577356</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H43" t="n">
-        <v>32.45932575975219</v>
+        <v>199.7544622051772</v>
       </c>
       <c r="I43" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J43" t="n">
         <v>32.45932575975219</v>
@@ -7600,19 +7602,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V43" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W43" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X43" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>924.8022053170796</v>
+        <v>1232.826956011798</v>
       </c>
       <c r="C44" t="n">
-        <v>924.8022053170796</v>
+        <v>863.864439071386</v>
       </c>
       <c r="D44" t="n">
-        <v>924.8022053170796</v>
+        <v>863.864439071386</v>
       </c>
       <c r="E44" t="n">
-        <v>924.8022053170796</v>
+        <v>478.0761864731417</v>
       </c>
       <c r="F44" t="n">
-        <v>514.9622336030368</v>
+        <v>68.23621475909891</v>
       </c>
       <c r="G44" t="n">
-        <v>105.122261888994</v>
+        <v>68.23621475909891</v>
       </c>
       <c r="H44" t="n">
-        <v>105.122261888994</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521474</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011316</v>
       </c>
       <c r="L44" t="n">
         <v>519.4894913528323</v>
@@ -7670,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T44" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U44" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V44" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W44" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X44" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y44" t="n">
-        <v>1311.402045381201</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>275.1116607907899</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="C45" t="n">
-        <v>275.1116607907899</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="D45" t="n">
-        <v>275.1116607907899</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="E45" t="n">
-        <v>275.1116607907899</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="F45" t="n">
-        <v>128.5771028176749</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G45" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H45" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975219</v>
@@ -7731,19 +7733,19 @@
         <v>32.45932575975219</v>
       </c>
       <c r="L45" t="n">
-        <v>330.1910807414154</v>
+        <v>147.3709770270843</v>
       </c>
       <c r="M45" t="n">
-        <v>729.6092173456784</v>
+        <v>546.7891136313473</v>
       </c>
       <c r="N45" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O45" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7761,16 +7763,16 @@
         <v>944.9608164894784</v>
       </c>
       <c r="V45" t="n">
-        <v>944.9608164894784</v>
+        <v>880.4200680866722</v>
       </c>
       <c r="W45" t="n">
-        <v>690.7234597612767</v>
+        <v>626.1827113584707</v>
       </c>
       <c r="X45" t="n">
-        <v>482.8719595557438</v>
+        <v>626.1827113584707</v>
       </c>
       <c r="Y45" t="n">
-        <v>275.1116607907899</v>
+        <v>418.4224125935167</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.3724193421453</v>
+        <v>114.9216713339788</v>
       </c>
       <c r="C46" t="n">
-        <v>180.3724193421453</v>
+        <v>114.9216713339788</v>
       </c>
       <c r="D46" t="n">
-        <v>180.3724193421453</v>
+        <v>114.9216713339788</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975219</v>
+        <v>114.9216713339788</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975219</v>
+        <v>114.9216713339788</v>
       </c>
       <c r="G46" t="n">
-        <v>32.45932575975219</v>
+        <v>114.9216713339788</v>
       </c>
       <c r="H46" t="n">
-        <v>32.45932575975219</v>
+        <v>114.9216713339788</v>
       </c>
       <c r="I46" t="n">
         <v>32.45932575975219</v>
@@ -7825,31 +7827,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q46" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R46" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S46" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T46" t="n">
-        <v>180.3724193421453</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U46" t="n">
-        <v>180.3724193421453</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="V46" t="n">
-        <v>180.3724193421453</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="W46" t="n">
-        <v>180.3724193421453</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="X46" t="n">
-        <v>180.3724193421453</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="Y46" t="n">
-        <v>180.3724193421453</v>
+        <v>296.5701361642185</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8063,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7352039419416</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8073,7 +8075,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>63.8487512925867</v>
+        <v>174.1879045256802</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9015,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304798</v>
+        <v>174.1879045256803</v>
       </c>
       <c r="O15" t="n">
-        <v>112.9628022719299</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275541</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>213.8448350321618</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
-        <v>142.0020905588916</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L21" t="n">
-        <v>186.173573874842</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>362.3381572675153</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>362.3381572675152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304796</v>
+        <v>241.381361814901</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9956,13 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>391.3774455544767</v>
+        <v>103.5056817990681</v>
       </c>
       <c r="N27" t="n">
         <v>455.0874215304797</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,13 +10202,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304797</v>
+        <v>92.88803957954804</v>
       </c>
       <c r="O30" t="n">
-        <v>247.3143048004598</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>86.93262649026374</v>
+        <v>228.256375769403</v>
       </c>
       <c r="L33" t="n">
-        <v>267.4734388209744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q33" t="n">
         <v>99.73813450275541</v>
@@ -10668,7 +10670,7 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L36" t="n">
-        <v>186.1735738748422</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10680,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10904,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>186.1735738748418</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304797</v>
+        <v>203.2271928126415</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11145,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>400.7426633853972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258599</v>
       </c>
       <c r="O42" t="n">
-        <v>67.58604940343852</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720734</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504501</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11379,7 +11381,7 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>186.1735738748418</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>244.1351504444136</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,10 +23272,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>194.1230164886338</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>176.2766771072243</v>
       </c>
       <c r="T11" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23340,10 +23342,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>128.0106975665956</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23352,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>25.80234166145284</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23397,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23431,10 +23433,10 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>120.5819502228692</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>126.1137933559314</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>219.4103988718534</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>243.3904192905915</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>326.5279451027737</v>
       </c>
       <c r="G14" t="n">
         <v>414.7135041305339</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>132.2434371502105</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23586,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>78.54202280713804</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>5.798944042544733</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,7 +23673,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>126.1137933559314</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4103988718534</v>
+        <v>198.0222341697041</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23732,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>288.1805909627094</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G17" t="n">
-        <v>8.971932133631526</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23792,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>135.9011209812533</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>9.693876124922625</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>12.87916806317035</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23862,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23911,7 +23913,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J19" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>180.2156082447829</v>
       </c>
       <c r="V19" t="n">
-        <v>92.04730137591957</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H20" t="n">
-        <v>242.324063918097</v>
+        <v>151.1827005387811</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24019,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2985142370684</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,13 +24050,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>150.2198559240987</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24111,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>165.2832744570138</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24148,7 +24150,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R22" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>120.7272614763987</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
-        <v>146.0486391109154</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>237.7705109919891</v>
+        <v>334.8093176443576</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,13 +24262,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>26.37177031989927</v>
+        <v>78.86485560979663</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24345,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>41.70072328554119</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24421,16 +24423,16 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>213.1612385756532</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24500,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>139.5303437551934</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>252.3860301008907</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24528,19 +24530,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>43.30784991658464</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>31.59930865325634</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>69.04353215175573</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
         <v>159.8772180037952</v>
@@ -24652,13 +24654,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>212.9428526967575</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24680,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>319.2639215113294</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G29" t="n">
         <v>414.7135041305339</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>8.736693563062161</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24759,10 +24761,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>51.13222266900972</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24771,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24813,16 +24815,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>198.7969949527897</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24886,16 +24888,16 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>120.7272614763989</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>146.0486391109154</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>65.10762352190591</v>
       </c>
       <c r="S32" t="n">
         <v>195.5929138346465</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>278.614848880845</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24999,7 +25001,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25008,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>9.022788041902317</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25056,10 +25058,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>168.306702409761</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>2.948050115383666</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25120,10 +25122,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R34" t="n">
-        <v>59.3200569239453</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
         <v>226.8162656893113</v>
@@ -25157,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25172,7 +25174,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>102.0852906162158</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25211,16 +25213,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>220.1291686949265</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>159.107959118565</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>78.52437462028925</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>180.2156082447829</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25375,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>118.794905656366</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>135.2540770614654</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
         <v>220.5164804230398</v>
@@ -25448,16 +25450,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>278.6148488808455</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25470,19 +25472,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>51.25412429904591</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>109.1906224126114</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
@@ -25524,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>75.78053846392558</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25555,22 +25557,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>134.0822771319449</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
-        <v>147.5019580580808</v>
+        <v>122.3846868237669</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141475</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
         <v>165.4090611368575</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,19 +25633,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>153.6263947818667</v>
       </c>
       <c r="G41" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>187.7594695105699</v>
@@ -25682,19 +25684,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>109.6588881535606</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>61.48259114134706</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>33.95674767626656</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25801,13 +25803,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>56.55224943852477</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141475</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>179.3898627250243</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>1.1344737448091</v>
       </c>
       <c r="G44" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
-        <v>333.4403157157206</v>
+        <v>298.0211956063674</v>
       </c>
       <c r="I44" t="n">
-        <v>115.8231627426205</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
         <v>220.5164804230398</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25953,16 +25955,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>41.87165022107797</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26001,13 +26003,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>168.9052462306472</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26041,7 +26043,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
-        <v>147.5019580580808</v>
+        <v>65.8642359395964</v>
       </c>
       <c r="J46" t="n">
         <v>74.67247646141475</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>165.4090611368575</v>
@@ -26074,7 +26076,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>47.75082525111449</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>476390.3052172484</v>
+        <v>476390.3052172483</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>476390.3052172481</v>
+        <v>476390.3052172482</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>476390.3052172483</v>
+        <v>476390.3052172479</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>476390.3052172483</v>
+        <v>476390.3052172482</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>476390.3052172483</v>
+        <v>476390.3052172482</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>476390.305217248</v>
+        <v>476390.3052172481</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>476390.3052172484</v>
+        <v>476390.305217248</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>476390.3052172482</v>
+        <v>476390.3052172484</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583913</v>
@@ -26323,16 +26325,16 @@
         <v>288399.0110372189</v>
       </c>
       <c r="F2" t="n">
-        <v>288399.0110372187</v>
+        <v>288399.0110372189</v>
       </c>
       <c r="G2" t="n">
-        <v>288399.011037219</v>
+        <v>288399.0110372189</v>
       </c>
       <c r="H2" t="n">
         <v>288399.011037219</v>
       </c>
       <c r="I2" t="n">
-        <v>288399.011037219</v>
+        <v>288399.0110372189</v>
       </c>
       <c r="J2" t="n">
         <v>288399.0110372189</v>
@@ -26341,16 +26343,16 @@
         <v>288399.0110372191</v>
       </c>
       <c r="L2" t="n">
-        <v>288399.011037219</v>
+        <v>288399.0110372191</v>
       </c>
       <c r="M2" t="n">
         <v>288399.011037219</v>
       </c>
       <c r="N2" t="n">
-        <v>288399.0110372191</v>
+        <v>288399.011037219</v>
       </c>
       <c r="O2" t="n">
-        <v>288399.0110372191</v>
+        <v>288399.0110372189</v>
       </c>
       <c r="P2" t="n">
         <v>288399.011037219</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>166940.1701252467</v>
+        <v>166940.1701252468</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910625</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244792</v>
+        <v>41050.69786244791</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26445,7 +26447,7 @@
         <v>17394.13523139261</v>
       </c>
       <c r="L4" t="n">
-        <v>17394.13523139261</v>
+        <v>17394.1352313926</v>
       </c>
       <c r="M4" t="n">
         <v>17394.13523139261</v>
@@ -26457,7 +26459,7 @@
         <v>17394.1352313926</v>
       </c>
       <c r="P4" t="n">
-        <v>17394.13523139261</v>
+        <v>17394.1352313926</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="F5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="H5" t="n">
         <v>27864.35291375758</v>
-      </c>
-      <c r="H5" t="n">
-        <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
         <v>27864.35291375756</v>
@@ -26503,7 +26505,7 @@
         <v>27864.35291375757</v>
       </c>
       <c r="N5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375757</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129292.2770876418</v>
+        <v>129292.2770876419</v>
       </c>
       <c r="C6" t="n">
-        <v>210061.7086191893</v>
+        <v>210061.7086191896</v>
       </c>
       <c r="D6" t="n">
         <v>210061.7086191894</v>
       </c>
       <c r="E6" t="n">
-        <v>76200.35276682199</v>
+        <v>76200.35276682186</v>
       </c>
       <c r="F6" t="n">
-        <v>243140.5228920685</v>
+        <v>243140.5228920687</v>
       </c>
       <c r="G6" t="n">
-        <v>243140.5228920688</v>
+        <v>243140.5228920687</v>
       </c>
       <c r="H6" t="n">
         <v>243140.5228920688</v>
       </c>
       <c r="I6" t="n">
-        <v>243140.5228920688</v>
+        <v>243140.5228920687</v>
       </c>
       <c r="J6" t="n">
-        <v>180080.5802929625</v>
+        <v>180080.5802929624</v>
       </c>
       <c r="K6" t="n">
         <v>243140.5228920689</v>
       </c>
       <c r="L6" t="n">
-        <v>243140.5228920688</v>
+        <v>243140.5228920689</v>
       </c>
       <c r="M6" t="n">
         <v>202089.8250296209</v>
       </c>
       <c r="N6" t="n">
-        <v>243140.5228920689</v>
+        <v>243140.5228920688</v>
       </c>
       <c r="O6" t="n">
-        <v>243140.522892069</v>
+        <v>243140.5228920687</v>
       </c>
       <c r="P6" t="n">
         <v>243140.5228920688</v>
@@ -26744,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="F3" t="n">
         <v>146.571804419537</v>
       </c>
       <c r="G3" t="n">
+        <v>146.571804419537</v>
+      </c>
+      <c r="H3" t="n">
         <v>146.5718044195371</v>
-      </c>
-      <c r="H3" t="n">
-        <v>146.571804419537</v>
       </c>
       <c r="I3" t="n">
         <v>146.571804419537</v>
@@ -26771,7 +26773,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="N3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="O3" t="n">
         <v>146.5718044195371</v>
@@ -26796,31 +26798,31 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>405.7415719969024</v>
+      </c>
+      <c r="F4" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>405.7415719969023</v>
+      </c>
+      <c r="H4" t="n">
         <v>405.7415719969024</v>
-      </c>
-      <c r="G4" t="n">
-        <v>405.7415719969024</v>
-      </c>
-      <c r="H4" t="n">
-        <v>405.7415719969023</v>
       </c>
       <c r="I4" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="J4" t="n">
+        <v>405.7415719969024</v>
+      </c>
+      <c r="K4" t="n">
+        <v>405.7415719969024</v>
+      </c>
+      <c r="L4" t="n">
+        <v>405.7415719969024</v>
+      </c>
+      <c r="M4" t="n">
         <v>405.7415719969023</v>
-      </c>
-      <c r="K4" t="n">
-        <v>405.7415719969023</v>
-      </c>
-      <c r="L4" t="n">
-        <v>405.7415719969023</v>
-      </c>
-      <c r="M4" t="n">
-        <v>405.7415719969024</v>
       </c>
       <c r="N4" t="n">
         <v>405.7415719969023</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192434</v>
+        <v>164.7272831192433</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192.6272392768849</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27442,10 +27444,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>120.2548914940281</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -27503,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27515,16 +27517,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>104.0744476250427</v>
       </c>
     </row>
     <row r="4">
@@ -27576,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27591,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,16 +27630,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>334.2973598602022</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>162.2490198036507</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,22 +27703,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>47.96083102801171</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27795,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.60374760888197</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>169.6449844288198</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>209.8933976134044</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27929,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,16 +27940,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>136.9579518922698</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27980,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>38.37926863324165</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28065,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I11" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L11" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971766</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K12" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864766</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326609</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177517</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J13" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M13" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N13" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O13" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O15" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
         <v>39.29566048323129</v>
@@ -32169,7 +32171,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
         <v>31.96707026225442</v>
@@ -32178,16 +32180,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I17" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M17" t="n">
         <v>103.4642265438474</v>
@@ -32248,16 +32250,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
@@ -32266,7 +32268,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,46 +32308,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H18" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M18" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R18" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,40 +32387,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H19" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J19" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L19" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M19" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N19" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P19" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
@@ -32461,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I20" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438474</v>
@@ -32485,16 +32487,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
@@ -32503,7 +32505,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32545,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R21" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,40 +32624,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K22" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O22" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R22" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
@@ -33883,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I38" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438474</v>
@@ -33907,16 +33909,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R38" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S38" t="n">
         <v>13.4271557515988</v>
@@ -33925,7 +33927,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,46 +33967,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H39" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M39" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R39" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,40 +34046,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I40" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L40" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M40" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O40" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R40" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34705,13 +34707,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1808241620674</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34793,7 +34795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35428,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223148</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>14.50290175900931</v>
+        <v>124.8420549921029</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>244.6906557616239</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P13" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35665,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
-        <v>177.5326105223149</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969024</v>
+        <v>124.8420549921029</v>
       </c>
       <c r="O15" t="n">
-        <v>45.37675286849139</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
         <v>244.6906557616239</v>
@@ -35805,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K17" t="n">
         <v>179.0082576726433</v>
@@ -35902,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366293</v>
+        <v>151.5924345187912</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
-        <v>74.41604115545309</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L19" t="n">
         <v>66.88568574354744</v>
@@ -36054,10 +36056,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P19" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726433</v>
@@ -36139,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>116.0723750175073</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>300.0857567541447</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.6906557616239</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L22" t="n">
         <v>66.88568574354744</v>
@@ -36291,10 +36293,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>300.0857567541445</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>192.0355122813236</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36455,7 +36457,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>329.125045041106</v>
+        <v>41.25328128569749</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36692,7 +36694,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>177.5326105223149</v>
@@ -36920,13 +36922,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969023</v>
+        <v>43.54219004597066</v>
       </c>
       <c r="O30" t="n">
-        <v>179.7282553970212</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
         <v>110.3391532330937</v>
@@ -37148,22 +37150,22 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>141.3237492791392</v>
       </c>
       <c r="L33" t="n">
-        <v>197.3722399636397</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>116.0723750175075</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
@@ -37561,7 +37563,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L39" t="n">
-        <v>116.0723750175072</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>405.7415719969023</v>
+        <v>153.8813432790641</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L40" t="n">
         <v>66.88568574354744</v>
@@ -37713,10 +37715,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O40" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P40" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.63987744680266</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>338.4902628720266</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900862</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
         <v>244.690655761624</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167934</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726433</v>
       </c>
       <c r="L44" t="n">
-        <v>274.8802469209095</v>
+        <v>274.8802469209098</v>
       </c>
       <c r="M44" t="n">
         <v>322.6315268094071</v>
@@ -38099,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175072</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366293</v>
@@ -38111,10 +38113,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>170.3630375661004</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
